--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +98,6 @@
   </si>
   <si>
     <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H2">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I2">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J2">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.74034076733355</v>
+        <v>2.330485333333333</v>
       </c>
       <c r="N2">
-        <v>1.74034076733355</v>
+        <v>6.991456</v>
       </c>
       <c r="O2">
-        <v>0.02894206868094597</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="P2">
-        <v>0.02894206868094597</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="Q2">
-        <v>1.450610264001341</v>
+        <v>6.012826169571555</v>
       </c>
       <c r="R2">
-        <v>1.450610264001341</v>
+        <v>54.115435526144</v>
       </c>
       <c r="S2">
-        <v>0.005320611838827302</v>
+        <v>0.01304389020041533</v>
       </c>
       <c r="T2">
-        <v>0.005320611838827302</v>
+        <v>0.01304389020041533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H3">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I3">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J3">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.1574503250236</v>
+        <v>29.178763</v>
       </c>
       <c r="N3">
-        <v>29.1574503250236</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O3">
-        <v>0.4848917784998182</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="P3">
-        <v>0.4848917784998182</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="Q3">
-        <v>24.30334191297037</v>
+        <v>75.28338722097067</v>
       </c>
       <c r="R3">
-        <v>24.30334191297037</v>
+        <v>677.550484988736</v>
       </c>
       <c r="S3">
-        <v>0.08914086154921785</v>
+        <v>0.1633155872350229</v>
       </c>
       <c r="T3">
-        <v>0.08914086154921785</v>
+        <v>0.1633155872350229</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H4">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I4">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J4">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.211868143211698</v>
+        <v>0.3937893333333333</v>
       </c>
       <c r="N4">
-        <v>0.211868143211698</v>
+        <v>1.181368</v>
       </c>
       <c r="O4">
-        <v>0.003523391778917188</v>
+        <v>0.006177016525822971</v>
       </c>
       <c r="P4">
-        <v>0.003523391778917188</v>
+        <v>0.006177016525822971</v>
       </c>
       <c r="Q4">
-        <v>0.1765965085267071</v>
+        <v>1.016005882936889</v>
       </c>
       <c r="R4">
-        <v>0.1765965085267071</v>
+        <v>9.144052946432</v>
       </c>
       <c r="S4">
-        <v>0.0006477284059544581</v>
+        <v>0.002204066574728391</v>
       </c>
       <c r="T4">
-        <v>0.0006477284059544581</v>
+        <v>0.002204066574728391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H5">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I5">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J5">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>9.163356229173161</v>
+        <v>0.4229803333333333</v>
       </c>
       <c r="N5">
-        <v>9.163356229173161</v>
+        <v>1.268941</v>
       </c>
       <c r="O5">
-        <v>0.152387676201505</v>
+        <v>0.006634909297775398</v>
       </c>
       <c r="P5">
-        <v>0.152387676201505</v>
+        <v>0.006634909297775398</v>
       </c>
       <c r="Q5">
-        <v>7.637848200904443</v>
+        <v>1.091320842531555</v>
       </c>
       <c r="R5">
-        <v>7.637848200904443</v>
+        <v>9.821887582784001</v>
       </c>
       <c r="S5">
-        <v>0.0280144340415755</v>
+        <v>0.002367450653312447</v>
       </c>
       <c r="T5">
-        <v>0.0280144340415755</v>
+        <v>0.002367450653312447</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H6">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I6">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J6">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.8588564660058</v>
+        <v>9.749056666666668</v>
       </c>
       <c r="N6">
-        <v>19.8588564660058</v>
+        <v>29.24717</v>
       </c>
       <c r="O6">
-        <v>0.3302550848388138</v>
+        <v>0.1529246199520842</v>
       </c>
       <c r="P6">
-        <v>0.3302550848388138</v>
+        <v>0.1529246199520842</v>
       </c>
       <c r="Q6">
-        <v>16.55277033190147</v>
+        <v>25.15329412956445</v>
       </c>
       <c r="R6">
-        <v>16.55277033190147</v>
+        <v>226.37964716608</v>
       </c>
       <c r="S6">
-        <v>0.06071297575847212</v>
+        <v>0.05456615534058732</v>
       </c>
       <c r="T6">
-        <v>0.06071297575847212</v>
+        <v>0.05456615534058732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.73799040857009</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H7">
-        <v>1.73799040857009</v>
+        <v>7.740224</v>
       </c>
       <c r="I7">
-        <v>0.3833212799373755</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J7">
-        <v>0.3833212799373755</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.74034076733355</v>
+        <v>21.67565866666666</v>
       </c>
       <c r="N7">
-        <v>1.74034076733355</v>
+        <v>65.02697599999999</v>
       </c>
       <c r="O7">
-        <v>0.02894206868094597</v>
+        <v>0.3400064208411719</v>
       </c>
       <c r="P7">
-        <v>0.02894206868094597</v>
+        <v>0.3400064208411719</v>
       </c>
       <c r="Q7">
-        <v>3.02469556126922</v>
+        <v>55.92481780918043</v>
       </c>
       <c r="R7">
-        <v>3.02469556126922</v>
+        <v>503.3233602826239</v>
       </c>
       <c r="S7">
-        <v>0.01109411081081564</v>
+        <v>0.1213201849527541</v>
       </c>
       <c r="T7">
-        <v>0.01109411081081564</v>
+        <v>0.1213201849527541</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H8">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I8">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J8">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.1574503250236</v>
+        <v>2.330485333333333</v>
       </c>
       <c r="N8">
-        <v>29.1574503250236</v>
+        <v>6.991456</v>
       </c>
       <c r="O8">
-        <v>0.4848917784998182</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="P8">
-        <v>0.4848917784998182</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="Q8">
-        <v>50.67536900324987</v>
+        <v>4.159964483363556</v>
       </c>
       <c r="R8">
-        <v>50.67536900324987</v>
+        <v>37.43968035027201</v>
       </c>
       <c r="S8">
-        <v>0.1858693371656607</v>
+        <v>0.009024395255798349</v>
       </c>
       <c r="T8">
-        <v>0.1858693371656607</v>
+        <v>0.009024395255798349</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H9">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I9">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J9">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.211868143211698</v>
+        <v>29.178763</v>
       </c>
       <c r="N9">
-        <v>0.211868143211698</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O9">
-        <v>0.003523391778917188</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="P9">
-        <v>0.003523391778917188</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="Q9">
-        <v>0.3682248007834854</v>
+        <v>52.08469498276867</v>
       </c>
       <c r="R9">
-        <v>0.3682248007834854</v>
+        <v>468.7622548449181</v>
       </c>
       <c r="S9">
-        <v>0.001350591046415363</v>
+        <v>0.112989636373567</v>
       </c>
       <c r="T9">
-        <v>0.001350591046415363</v>
+        <v>0.112989636373567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H10">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I10">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J10">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.163356229173161</v>
+        <v>0.3937893333333333</v>
       </c>
       <c r="N10">
-        <v>9.163356229173161</v>
+        <v>1.181368</v>
       </c>
       <c r="O10">
-        <v>0.152387676201505</v>
+        <v>0.006177016525822971</v>
       </c>
       <c r="P10">
-        <v>0.152387676201505</v>
+        <v>0.006177016525822971</v>
       </c>
       <c r="Q10">
-        <v>15.92582523661394</v>
+        <v>0.7029220983128889</v>
       </c>
       <c r="R10">
-        <v>15.92582523661394</v>
+        <v>6.326298884816</v>
       </c>
       <c r="S10">
-        <v>0.05841343908824321</v>
+        <v>0.001524880049956974</v>
       </c>
       <c r="T10">
-        <v>0.05841343908824321</v>
+        <v>0.001524880049956974</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H11">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I11">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J11">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>19.8588564660058</v>
+        <v>0.4229803333333333</v>
       </c>
       <c r="N11">
-        <v>19.8588564660058</v>
+        <v>1.268941</v>
       </c>
       <c r="O11">
-        <v>0.3302550848388138</v>
+        <v>0.006634909297775398</v>
       </c>
       <c r="P11">
-        <v>0.3302550848388138</v>
+        <v>0.006634909297775398</v>
       </c>
       <c r="Q11">
-        <v>34.51450206308819</v>
+        <v>0.7550286365935557</v>
       </c>
       <c r="R11">
-        <v>34.51450206308819</v>
+        <v>6.795257729342</v>
       </c>
       <c r="S11">
-        <v>0.1265938018262406</v>
+        <v>0.001637917071964411</v>
       </c>
       <c r="T11">
-        <v>0.1265938018262406</v>
+        <v>0.001637917071964411</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.96251935991277</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H12">
-        <v>1.96251935991277</v>
+        <v>5.355062</v>
       </c>
       <c r="I12">
-        <v>0.4328421084685773</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J12">
-        <v>0.4328421084685773</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.74034076733355</v>
+        <v>9.749056666666668</v>
       </c>
       <c r="N12">
-        <v>1.74034076733355</v>
+        <v>29.24717</v>
       </c>
       <c r="O12">
-        <v>0.02894206868094597</v>
+        <v>0.1529246199520842</v>
       </c>
       <c r="P12">
-        <v>0.02894206868094597</v>
+        <v>0.1529246199520842</v>
       </c>
       <c r="Q12">
-        <v>3.415452448737538</v>
+        <v>17.40226763050445</v>
       </c>
       <c r="R12">
-        <v>3.415452448737538</v>
+        <v>156.62040867454</v>
       </c>
       <c r="S12">
-        <v>0.01252734603130303</v>
+        <v>0.03775151015661514</v>
       </c>
       <c r="T12">
-        <v>0.01252734603130303</v>
+        <v>0.03775151015661514</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.96251935991277</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H13">
-        <v>1.96251935991277</v>
+        <v>5.355062</v>
       </c>
       <c r="I13">
-        <v>0.4328421084685773</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J13">
-        <v>0.4328421084685773</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.1574503250236</v>
+        <v>21.67565866666666</v>
       </c>
       <c r="N13">
-        <v>29.1574503250236</v>
+        <v>65.02697599999999</v>
       </c>
       <c r="O13">
-        <v>0.4848917784998182</v>
+        <v>0.3400064208411719</v>
       </c>
       <c r="P13">
-        <v>0.4848917784998182</v>
+        <v>0.3400064208411719</v>
       </c>
       <c r="Q13">
-        <v>57.2220607485537</v>
+        <v>38.69149868361244</v>
       </c>
       <c r="R13">
-        <v>57.2220607485537</v>
+        <v>348.2234881525119</v>
       </c>
       <c r="S13">
-        <v>0.2098815797849397</v>
+        <v>0.08393518227295044</v>
       </c>
       <c r="T13">
-        <v>0.2098815797849397</v>
+        <v>0.08393518227295044</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.96251935991277</v>
+        <v>0.06561933333333334</v>
       </c>
       <c r="H14">
-        <v>1.96251935991277</v>
+        <v>0.196858</v>
       </c>
       <c r="I14">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="J14">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.211868143211698</v>
+        <v>2.330485333333333</v>
       </c>
       <c r="N14">
-        <v>0.211868143211698</v>
+        <v>6.991456</v>
       </c>
       <c r="O14">
-        <v>0.003523391778917188</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="P14">
-        <v>0.003523391778917188</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="Q14">
-        <v>0.4157953328017286</v>
+        <v>0.1529248939164445</v>
       </c>
       <c r="R14">
-        <v>0.4157953328017286</v>
+        <v>1.376324045248</v>
       </c>
       <c r="S14">
-        <v>0.001525072326547367</v>
+        <v>0.0003317467475196275</v>
       </c>
       <c r="T14">
-        <v>0.001525072326547367</v>
+        <v>0.0003317467475196275</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.96251935991277</v>
+        <v>0.06561933333333334</v>
       </c>
       <c r="H15">
-        <v>1.96251935991277</v>
+        <v>0.196858</v>
       </c>
       <c r="I15">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="J15">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.163356229173161</v>
+        <v>29.178763</v>
       </c>
       <c r="N15">
-        <v>9.163356229173161</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O15">
-        <v>0.152387676201505</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="P15">
-        <v>0.152387676201505</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="Q15">
-        <v>17.98326400152961</v>
+        <v>1.914690975551334</v>
       </c>
       <c r="R15">
-        <v>17.98326400152961</v>
+        <v>17.232218779962</v>
       </c>
       <c r="S15">
-        <v>0.06595980307168624</v>
+        <v>0.004153623961259021</v>
       </c>
       <c r="T15">
-        <v>0.06595980307168624</v>
+        <v>0.004153623961259021</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1405,49 +1408,1351 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.96251935991277</v>
+        <v>0.06561933333333334</v>
       </c>
       <c r="H16">
-        <v>1.96251935991277</v>
+        <v>0.196858</v>
       </c>
       <c r="I16">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="J16">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.8588564660058</v>
+        <v>0.3937893333333333</v>
       </c>
       <c r="N16">
-        <v>19.8588564660058</v>
+        <v>1.181368</v>
       </c>
       <c r="O16">
-        <v>0.3302550848388138</v>
+        <v>0.006177016525822971</v>
       </c>
       <c r="P16">
-        <v>0.3302550848388138</v>
+        <v>0.006177016525822971</v>
       </c>
       <c r="Q16">
-        <v>38.97339028026528</v>
+        <v>0.02584019352711111</v>
       </c>
       <c r="R16">
-        <v>38.97339028026528</v>
+        <v>0.232561741744</v>
       </c>
       <c r="S16">
-        <v>0.142948307254101</v>
+        <v>5.605627663590635E-05</v>
       </c>
       <c r="T16">
-        <v>0.142948307254101</v>
+        <v>5.605627663590635E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06561933333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.196858</v>
+      </c>
+      <c r="I17">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="J17">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.4229803333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.268941</v>
+      </c>
+      <c r="O17">
+        <v>0.006634909297775398</v>
+      </c>
+      <c r="P17">
+        <v>0.006634909297775398</v>
+      </c>
+      <c r="Q17">
+        <v>0.02775568748644444</v>
+      </c>
+      <c r="R17">
+        <v>0.249801187378</v>
+      </c>
+      <c r="S17">
+        <v>6.021164254545886E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.021164254545886E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06561933333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.196858</v>
+      </c>
+      <c r="I18">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="J18">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.749056666666668</v>
+      </c>
+      <c r="N18">
+        <v>29.24717</v>
+      </c>
+      <c r="O18">
+        <v>0.1529246199520842</v>
+      </c>
+      <c r="P18">
+        <v>0.1529246199520842</v>
+      </c>
+      <c r="Q18">
+        <v>0.6397265990955556</v>
+      </c>
+      <c r="R18">
+        <v>5.757539391860001</v>
+      </c>
+      <c r="S18">
+        <v>0.001387787253707042</v>
+      </c>
+      <c r="T18">
+        <v>0.001387787253707042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06561933333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.196858</v>
+      </c>
+      <c r="I19">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="J19">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>21.67565866666666</v>
+      </c>
+      <c r="N19">
+        <v>65.02697599999999</v>
+      </c>
+      <c r="O19">
+        <v>0.3400064208411719</v>
+      </c>
+      <c r="P19">
+        <v>0.3400064208411719</v>
+      </c>
+      <c r="Q19">
+        <v>1.422342271267555</v>
+      </c>
+      <c r="R19">
+        <v>12.801080441408</v>
+      </c>
+      <c r="S19">
+        <v>0.003085550104160975</v>
+      </c>
+      <c r="T19">
+        <v>0.003085550104160975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.660166</v>
+      </c>
+      <c r="H20">
+        <v>1.980498</v>
+      </c>
+      <c r="I20">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J20">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.330485333333333</v>
+      </c>
+      <c r="N20">
+        <v>6.991456</v>
+      </c>
+      <c r="O20">
+        <v>0.03655621216383393</v>
+      </c>
+      <c r="P20">
+        <v>0.03655621216383393</v>
+      </c>
+      <c r="Q20">
+        <v>1.538507180565333</v>
+      </c>
+      <c r="R20">
+        <v>13.846564625088</v>
+      </c>
+      <c r="S20">
+        <v>0.003337551788442061</v>
+      </c>
+      <c r="T20">
+        <v>0.003337551788442061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.660166</v>
+      </c>
+      <c r="H21">
+        <v>1.980498</v>
+      </c>
+      <c r="I21">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J21">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>29.178763</v>
+      </c>
+      <c r="N21">
+        <v>87.53628900000001</v>
+      </c>
+      <c r="O21">
+        <v>0.4577008212193115</v>
+      </c>
+      <c r="P21">
+        <v>0.4577008212193115</v>
+      </c>
+      <c r="Q21">
+        <v>19.262827254658</v>
+      </c>
+      <c r="R21">
+        <v>173.365445291922</v>
+      </c>
+      <c r="S21">
+        <v>0.04178770457906495</v>
+      </c>
+      <c r="T21">
+        <v>0.04178770457906494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.660166</v>
+      </c>
+      <c r="H22">
+        <v>1.980498</v>
+      </c>
+      <c r="I22">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J22">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.3937893333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.181368</v>
+      </c>
+      <c r="O22">
+        <v>0.006177016525822971</v>
+      </c>
+      <c r="P22">
+        <v>0.006177016525822971</v>
+      </c>
+      <c r="Q22">
+        <v>0.2599663290293334</v>
+      </c>
+      <c r="R22">
+        <v>2.339696961264</v>
+      </c>
+      <c r="S22">
+        <v>0.0005639564750472893</v>
+      </c>
+      <c r="T22">
+        <v>0.0005639564750472892</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.660166</v>
+      </c>
+      <c r="H23">
+        <v>1.980498</v>
+      </c>
+      <c r="I23">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J23">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.4229803333333333</v>
+      </c>
+      <c r="N23">
+        <v>1.268941</v>
+      </c>
+      <c r="O23">
+        <v>0.006634909297775398</v>
+      </c>
+      <c r="P23">
+        <v>0.006634909297775398</v>
+      </c>
+      <c r="Q23">
+        <v>0.2792372347353334</v>
+      </c>
+      <c r="R23">
+        <v>2.513135112618</v>
+      </c>
+      <c r="S23">
+        <v>0.0006057617045687561</v>
+      </c>
+      <c r="T23">
+        <v>0.000605761704568756</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.660166</v>
+      </c>
+      <c r="H24">
+        <v>1.980498</v>
+      </c>
+      <c r="I24">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J24">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9.749056666666668</v>
+      </c>
+      <c r="N24">
+        <v>29.24717</v>
+      </c>
+      <c r="O24">
+        <v>0.1529246199520842</v>
+      </c>
+      <c r="P24">
+        <v>0.1529246199520842</v>
+      </c>
+      <c r="Q24">
+        <v>6.435995743406668</v>
+      </c>
+      <c r="R24">
+        <v>57.92396169066001</v>
+      </c>
+      <c r="S24">
+        <v>0.013961890704936</v>
+      </c>
+      <c r="T24">
+        <v>0.01396189070493599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.660166</v>
+      </c>
+      <c r="H25">
+        <v>1.980498</v>
+      </c>
+      <c r="I25">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J25">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.67565866666666</v>
+      </c>
+      <c r="N25">
+        <v>65.02697599999999</v>
+      </c>
+      <c r="O25">
+        <v>0.3400064208411719</v>
+      </c>
+      <c r="P25">
+        <v>0.3400064208411719</v>
+      </c>
+      <c r="Q25">
+        <v>14.30953287933866</v>
+      </c>
+      <c r="R25">
+        <v>128.785795914048</v>
+      </c>
+      <c r="S25">
+        <v>0.03104230364115557</v>
+      </c>
+      <c r="T25">
+        <v>0.03104230364115556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.180848</v>
+      </c>
+      <c r="I26">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J26">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.330485333333333</v>
+      </c>
+      <c r="N26">
+        <v>6.991456</v>
+      </c>
+      <c r="O26">
+        <v>0.03655621216383393</v>
+      </c>
+      <c r="P26">
+        <v>0.03655621216383393</v>
+      </c>
+      <c r="Q26">
+        <v>0.1404878705208889</v>
+      </c>
+      <c r="R26">
+        <v>1.264390834688</v>
+      </c>
+      <c r="S26">
+        <v>0.0003047665616608397</v>
+      </c>
+      <c r="T26">
+        <v>0.0003047665616608397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.180848</v>
+      </c>
+      <c r="I27">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J27">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>29.178763</v>
+      </c>
+      <c r="N27">
+        <v>87.53628900000001</v>
+      </c>
+      <c r="O27">
+        <v>0.4577008212193115</v>
+      </c>
+      <c r="P27">
+        <v>0.4577008212193115</v>
+      </c>
+      <c r="Q27">
+        <v>1.758973643674667</v>
+      </c>
+      <c r="R27">
+        <v>15.830762793072</v>
+      </c>
+      <c r="S27">
+        <v>0.003815819454356802</v>
+      </c>
+      <c r="T27">
+        <v>0.003815819454356802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.180848</v>
+      </c>
+      <c r="I28">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J28">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.3937893333333333</v>
+      </c>
+      <c r="N28">
+        <v>1.181368</v>
+      </c>
+      <c r="O28">
+        <v>0.006177016525822971</v>
+      </c>
+      <c r="P28">
+        <v>0.006177016525822971</v>
+      </c>
+      <c r="Q28">
+        <v>0.02373867111822222</v>
+      </c>
+      <c r="R28">
+        <v>0.213648040064</v>
+      </c>
+      <c r="S28">
+        <v>5.149735096897455E-05</v>
+      </c>
+      <c r="T28">
+        <v>5.149735096897455E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.180848</v>
+      </c>
+      <c r="I29">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J29">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.4229803333333333</v>
+      </c>
+      <c r="N29">
+        <v>1.268941</v>
+      </c>
+      <c r="O29">
+        <v>0.006634909297775398</v>
+      </c>
+      <c r="P29">
+        <v>0.006634909297775398</v>
+      </c>
+      <c r="Q29">
+        <v>0.02549838244088889</v>
+      </c>
+      <c r="R29">
+        <v>0.229485441968</v>
+      </c>
+      <c r="S29">
+        <v>5.531477070305065E-05</v>
+      </c>
+      <c r="T29">
+        <v>5.531477070305065E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.180848</v>
+      </c>
+      <c r="I30">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J30">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>9.749056666666668</v>
+      </c>
+      <c r="N30">
+        <v>29.24717</v>
+      </c>
+      <c r="O30">
+        <v>0.1529246199520842</v>
+      </c>
+      <c r="P30">
+        <v>0.1529246199520842</v>
+      </c>
+      <c r="Q30">
+        <v>0.5876991333511112</v>
+      </c>
+      <c r="R30">
+        <v>5.289292200160001</v>
+      </c>
+      <c r="S30">
+        <v>0.001274921767255642</v>
+      </c>
+      <c r="T30">
+        <v>0.001274921767255642</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.180848</v>
+      </c>
+      <c r="I31">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J31">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>21.67565866666666</v>
+      </c>
+      <c r="N31">
+        <v>65.02697599999999</v>
+      </c>
+      <c r="O31">
+        <v>0.3400064208411719</v>
+      </c>
+      <c r="P31">
+        <v>0.3400064208411719</v>
+      </c>
+      <c r="Q31">
+        <v>1.306666506183111</v>
+      </c>
+      <c r="R31">
+        <v>11.759998555648</v>
+      </c>
+      <c r="S31">
+        <v>0.002834609542092798</v>
+      </c>
+      <c r="T31">
+        <v>0.002834609542092798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H32">
+        <v>6.238909</v>
+      </c>
+      <c r="I32">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J32">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.330485333333333</v>
+      </c>
+      <c r="N32">
+        <v>6.991456</v>
+      </c>
+      <c r="O32">
+        <v>0.03655621216383393</v>
+      </c>
+      <c r="P32">
+        <v>0.03655621216383393</v>
+      </c>
+      <c r="Q32">
+        <v>4.846561973500444</v>
+      </c>
+      <c r="R32">
+        <v>43.619057761504</v>
+      </c>
+      <c r="S32">
+        <v>0.01051386160999772</v>
+      </c>
+      <c r="T32">
+        <v>0.01051386160999772</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H33">
+        <v>6.238909</v>
+      </c>
+      <c r="I33">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J33">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>29.178763</v>
+      </c>
+      <c r="N33">
+        <v>87.53628900000001</v>
+      </c>
+      <c r="O33">
+        <v>0.4577008212193115</v>
+      </c>
+      <c r="P33">
+        <v>0.4577008212193115</v>
+      </c>
+      <c r="Q33">
+        <v>60.68121569652234</v>
+      </c>
+      <c r="R33">
+        <v>546.130941268701</v>
+      </c>
+      <c r="S33">
+        <v>0.1316384496160408</v>
+      </c>
+      <c r="T33">
+        <v>0.1316384496160408</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H34">
+        <v>6.238909</v>
+      </c>
+      <c r="I34">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J34">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.3937893333333333</v>
+      </c>
+      <c r="N34">
+        <v>1.181368</v>
+      </c>
+      <c r="O34">
+        <v>0.006177016525822971</v>
+      </c>
+      <c r="P34">
+        <v>0.006177016525822971</v>
+      </c>
+      <c r="Q34">
+        <v>0.818938605279111</v>
+      </c>
+      <c r="R34">
+        <v>7.370447447511999</v>
+      </c>
+      <c r="S34">
+        <v>0.001776559798485435</v>
+      </c>
+      <c r="T34">
+        <v>0.001776559798485435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H35">
+        <v>6.238909</v>
+      </c>
+      <c r="I35">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J35">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.4229803333333333</v>
+      </c>
+      <c r="N35">
+        <v>1.268941</v>
+      </c>
+      <c r="O35">
+        <v>0.006634909297775398</v>
+      </c>
+      <c r="P35">
+        <v>0.006634909297775398</v>
+      </c>
+      <c r="Q35">
+        <v>0.8796452694854444</v>
+      </c>
+      <c r="R35">
+        <v>7.916807425369</v>
+      </c>
+      <c r="S35">
+        <v>0.001908253454681274</v>
+      </c>
+      <c r="T35">
+        <v>0.001908253454681274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H36">
+        <v>6.238909</v>
+      </c>
+      <c r="I36">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J36">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>9.749056666666668</v>
+      </c>
+      <c r="N36">
+        <v>29.24717</v>
+      </c>
+      <c r="O36">
+        <v>0.1529246199520842</v>
+      </c>
+      <c r="P36">
+        <v>0.1529246199520842</v>
+      </c>
+      <c r="Q36">
+        <v>20.27449245972556</v>
+      </c>
+      <c r="R36">
+        <v>182.47043213753</v>
+      </c>
+      <c r="S36">
+        <v>0.04398235472898308</v>
+      </c>
+      <c r="T36">
+        <v>0.04398235472898308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H37">
+        <v>6.238909</v>
+      </c>
+      <c r="I37">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J37">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>21.67565866666666</v>
+      </c>
+      <c r="N37">
+        <v>65.02697599999999</v>
+      </c>
+      <c r="O37">
+        <v>0.3400064208411719</v>
+      </c>
+      <c r="P37">
+        <v>0.3400064208411719</v>
+      </c>
+      <c r="Q37">
+        <v>45.07748731213155</v>
+      </c>
+      <c r="R37">
+        <v>405.6973858091839</v>
+      </c>
+      <c r="S37">
+        <v>0.09778859032805801</v>
+      </c>
+      <c r="T37">
+        <v>0.09778859032805801</v>
       </c>
     </row>
   </sheetData>
